--- a/va_facility_data_2025-02-20/McHenry VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McHenry%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/McHenry VA Clinic - Facility Data.xlsx"; filename*=UTF-8''McHenry%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R567b6db1644a49baa5031549b1e5724f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbc74b832f74640deb0032e0005eccbc2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R688d392cf0834910907211450122547f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0bfaae52567d4f2985d3bf15ad292177"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R045e5a1438694d3684a1837069ee56ab"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6533996c518244ddaf8ceed6734ffdaa"/>
   </x:sheets>
 </x:workbook>
 </file>
